--- a/焦煤/eta/焦煤港口库存_月度数据.xlsx
+++ b/焦煤/eta/焦煤港口库存_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>317.9</v>
+        <v>321.7</v>
       </c>
     </row>
     <row r="3">
@@ -471,7 +471,7 @@
         <v>284.6</v>
       </c>
       <c r="C3" t="n">
-        <v>298.2</v>
+        <v>299.8</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>273.6</v>
       </c>
       <c r="C4" t="n">
-        <v>289.1</v>
+        <v>293.7</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>270.4</v>
       </c>
       <c r="C5" t="n">
-        <v>275.8</v>
+        <v>277.5</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>309.9</v>
       </c>
       <c r="C6" t="n">
-        <v>311.4</v>
+        <v>309.7</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>303.5</v>
       </c>
       <c r="C7" t="n">
-        <v>312.4</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8">
@@ -549,7 +549,7 @@
         <v>339.7</v>
       </c>
       <c r="C9" t="n">
-        <v>339.8</v>
+        <v>339.9</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         <v>379.7</v>
       </c>
       <c r="C10" t="n">
-        <v>379.7</v>
+        <v>379.8</v>
       </c>
     </row>
     <row r="11">
@@ -601,7 +601,7 @@
         <v>467.7</v>
       </c>
       <c r="C13" t="n">
-        <v>467.7</v>
+        <v>467.6</v>
       </c>
     </row>
     <row r="14">
@@ -640,7 +640,7 @@
         <v>405.6</v>
       </c>
       <c r="C16" t="n">
-        <v>405.5</v>
+        <v>405.6</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>336.7</v>
       </c>
       <c r="C17" t="n">
-        <v>336.8</v>
+        <v>336.7</v>
       </c>
     </row>
     <row r="18">
@@ -679,7 +679,7 @@
         <v>240.2</v>
       </c>
       <c r="C19" t="n">
-        <v>240.3</v>
+        <v>240.4</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +692,7 @@
         <v>227.1</v>
       </c>
       <c r="C20" t="n">
-        <v>226.8</v>
+        <v>226.9</v>
       </c>
     </row>
     <row r="21">
@@ -705,7 +705,7 @@
         <v>210</v>
       </c>
       <c r="C21" t="n">
-        <v>210.2</v>
+        <v>210.3</v>
       </c>
     </row>
     <row r="22">
@@ -744,7 +744,7 @@
         <v>187.9</v>
       </c>
       <c r="C24" t="n">
-        <v>188</v>
+        <v>188.1</v>
       </c>
     </row>
     <row r="25">
